--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fbn1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H2">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I2">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J2">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N2">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O2">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P2">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q2">
-        <v>288.5523849944538</v>
+        <v>311.565678227895</v>
       </c>
       <c r="R2">
-        <v>288.5523849944538</v>
+        <v>1246.26271291158</v>
       </c>
       <c r="S2">
-        <v>0.003288949056949644</v>
+        <v>0.003212417066632899</v>
       </c>
       <c r="T2">
-        <v>0.003288949056949644</v>
+        <v>0.00156713782815979</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H3">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I3">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J3">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N3">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P3">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q3">
-        <v>1112.79402762379</v>
+        <v>1210.881958171509</v>
       </c>
       <c r="R3">
-        <v>1112.79402762379</v>
+        <v>7265.291749029055</v>
       </c>
       <c r="S3">
-        <v>0.01268373805956519</v>
+        <v>0.01248487282114168</v>
       </c>
       <c r="T3">
-        <v>0.01268373805956519</v>
+        <v>0.009135885567755431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H4">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I4">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J4">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N4">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O4">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P4">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q4">
-        <v>1597.081497376052</v>
+        <v>1666.575957412821</v>
       </c>
       <c r="R4">
-        <v>1597.081497376052</v>
+        <v>9999.455744476927</v>
       </c>
       <c r="S4">
-        <v>0.01820369526582722</v>
+        <v>0.0171833337962117</v>
       </c>
       <c r="T4">
-        <v>0.01820369526582722</v>
+        <v>0.01257401444802056</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H5">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I5">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J5">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N5">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O5">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P5">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q5">
-        <v>1591.69746303459</v>
+        <v>1649.252465198663</v>
       </c>
       <c r="R5">
-        <v>1591.69746303459</v>
+        <v>9895.514791191979</v>
       </c>
       <c r="S5">
-        <v>0.01814232750180656</v>
+        <v>0.01700471886545628</v>
       </c>
       <c r="T5">
-        <v>0.01814232750180656</v>
+        <v>0.01244331182962377</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H6">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I6">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J6">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N6">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O6">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P6">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q6">
-        <v>217.0100287257155</v>
+        <v>243.7335200665561</v>
       </c>
       <c r="R6">
-        <v>217.0100287257155</v>
+        <v>1462.401120399336</v>
       </c>
       <c r="S6">
-        <v>0.002473502096819529</v>
+        <v>0.002513029432592411</v>
       </c>
       <c r="T6">
-        <v>0.002473502096819529</v>
+        <v>0.001838925366198978</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.2575639641286</v>
+        <v>20.785713</v>
       </c>
       <c r="H7">
-        <v>20.2575639641286</v>
+        <v>41.571426</v>
       </c>
       <c r="I7">
-        <v>0.06071959664415014</v>
+        <v>0.05790803399871285</v>
       </c>
       <c r="J7">
-        <v>0.06071959664415014</v>
+        <v>0.04024709532822476</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N7">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O7">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P7">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q7">
-        <v>520.0326766164608</v>
+        <v>534.370708231854</v>
       </c>
       <c r="R7">
-        <v>520.0326766164608</v>
+        <v>2137.482832927416</v>
       </c>
       <c r="S7">
-        <v>0.005927384663181982</v>
+        <v>0.005509662016677884</v>
       </c>
       <c r="T7">
-        <v>0.005927384663181982</v>
+        <v>0.002687820288466227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H8">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I8">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J8">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N8">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O8">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P8">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q8">
-        <v>3999.70924142336</v>
+        <v>4542.824426462677</v>
       </c>
       <c r="R8">
-        <v>3999.70924142336</v>
+        <v>27256.94655877606</v>
       </c>
       <c r="S8">
-        <v>0.04558908753398446</v>
+        <v>0.04683907034076815</v>
       </c>
       <c r="T8">
-        <v>0.04558908753398446</v>
+        <v>0.03427478940824121</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H9">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I9">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J9">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N9">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P9">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q9">
-        <v>15424.7644016983</v>
+        <v>17655.42394923521</v>
       </c>
       <c r="R9">
-        <v>15424.7644016983</v>
+        <v>158898.8155431169</v>
       </c>
       <c r="S9">
-        <v>0.1758130134104114</v>
+        <v>0.1820373333024088</v>
       </c>
       <c r="T9">
-        <v>0.1758130134104114</v>
+        <v>0.1998104750367112</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H10">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I10">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J10">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N10">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O10">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P10">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q10">
-        <v>22137.61506245749</v>
+        <v>24299.73035204666</v>
       </c>
       <c r="R10">
-        <v>22137.61506245749</v>
+        <v>218697.57316842</v>
       </c>
       <c r="S10">
-        <v>0.2523267592613496</v>
+        <v>0.2505438626663957</v>
       </c>
       <c r="T10">
-        <v>0.2523267592613496</v>
+        <v>0.275005611808985</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H11">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I11">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J11">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N11">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O11">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P11">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q11">
-        <v>22062.985383302</v>
+        <v>24047.14289109871</v>
       </c>
       <c r="R11">
-        <v>22062.985383302</v>
+        <v>216424.2860198884</v>
       </c>
       <c r="S11">
-        <v>0.2514761226849663</v>
+        <v>0.2479395441323973</v>
       </c>
       <c r="T11">
-        <v>0.2514761226849663</v>
+        <v>0.272147021683625</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H12">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I12">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J12">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N12">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O12">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P12">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q12">
-        <v>3008.039657660346</v>
+        <v>3553.788706136595</v>
       </c>
       <c r="R12">
-        <v>3008.039657660346</v>
+        <v>31984.09835522936</v>
       </c>
       <c r="S12">
-        <v>0.0342859380473299</v>
+        <v>0.03664155678421684</v>
       </c>
       <c r="T12">
-        <v>0.0342859380473299</v>
+        <v>0.04021904042604492</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>280.79603569247</v>
+        <v>303.0688273333333</v>
       </c>
       <c r="H13">
-        <v>280.79603569247</v>
+        <v>909.2064820000001</v>
       </c>
       <c r="I13">
-        <v>0.8416521382686688</v>
+        <v>0.8443357202694322</v>
       </c>
       <c r="J13">
-        <v>0.8416521382686688</v>
+        <v>0.8802421151993648</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N13">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O13">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P13">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q13">
-        <v>7208.325457247435</v>
+        <v>7791.462525490985</v>
       </c>
       <c r="R13">
-        <v>7208.325457247435</v>
+        <v>46748.77515294591</v>
       </c>
       <c r="S13">
-        <v>0.08216121733062698</v>
+        <v>0.08033435304324536</v>
       </c>
       <c r="T13">
-        <v>0.08216121733062698</v>
+        <v>0.05878517683575742</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H14">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I14">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J14">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N14">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O14">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P14">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q14">
-        <v>6.209169358437258</v>
+        <v>3.026917496855</v>
       </c>
       <c r="R14">
-        <v>6.209169358437258</v>
+        <v>18.16150498113</v>
       </c>
       <c r="S14">
-        <v>7.077273579376364E-05</v>
+        <v>3.120921881220277E-05</v>
       </c>
       <c r="T14">
-        <v>7.077273579376364E-05</v>
+        <v>2.283754554908245E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H15">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I15">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J15">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N15">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P15">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q15">
-        <v>23.94548420976117</v>
+        <v>11.763939489941</v>
       </c>
       <c r="R15">
-        <v>23.94548420976117</v>
+        <v>105.875455409469</v>
       </c>
       <c r="S15">
-        <v>0.0002729330333256831</v>
+        <v>0.0001212928208372206</v>
       </c>
       <c r="T15">
-        <v>0.0002729330333256831</v>
+        <v>0.0001331351965575462</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H16">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I16">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J16">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N16">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O16">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P16">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q16">
-        <v>34.36654837084463</v>
+        <v>16.191089962229</v>
       </c>
       <c r="R16">
-        <v>34.36654837084463</v>
+        <v>145.719809660061</v>
       </c>
       <c r="S16">
-        <v>0.0003917133689852409</v>
+        <v>0.0001669392277669572</v>
       </c>
       <c r="T16">
-        <v>0.0003917133689852409</v>
+        <v>0.0001832382720470013</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H17">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I17">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J17">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N17">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O17">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P17">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q17">
-        <v>34.25069287008892</v>
+        <v>16.02278906982034</v>
       </c>
       <c r="R17">
-        <v>34.25069287008892</v>
+        <v>144.205101628383</v>
       </c>
       <c r="S17">
-        <v>0.0003903928363548826</v>
+        <v>0.0001652039510760898</v>
       </c>
       <c r="T17">
-        <v>0.0003903928363548826</v>
+        <v>0.0001813335723151812</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H18">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I18">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J18">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N18">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O18">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P18">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q18">
-        <v>4.669696356393661</v>
+        <v>2.367915685244001</v>
       </c>
       <c r="R18">
-        <v>4.669696356393661</v>
+        <v>21.311241167196</v>
       </c>
       <c r="S18">
-        <v>5.322566794205261E-05</v>
+        <v>2.441454014733167E-05</v>
       </c>
       <c r="T18">
-        <v>5.322566794205261E-05</v>
+        <v>2.679824394338479E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.435909221284266</v>
+        <v>0.201937</v>
       </c>
       <c r="H19">
-        <v>0.435909221284266</v>
+        <v>0.605811</v>
       </c>
       <c r="I19">
-        <v>0.001306585142059295</v>
+        <v>0.000562587131920761</v>
       </c>
       <c r="J19">
-        <v>0.001306585142059295</v>
+        <v>0.0005865118282901136</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N19">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O19">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P19">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q19">
-        <v>11.19024180339075</v>
+        <v>5.191509076846</v>
       </c>
       <c r="R19">
-        <v>11.19024180339075</v>
+        <v>31.149054461076</v>
       </c>
       <c r="S19">
-        <v>0.0001275474996576719</v>
+        <v>5.352737328095899E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001275474996576719</v>
+        <v>3.916899787791772E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H20">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I20">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J20">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N20">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O20">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P20">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q20">
-        <v>159.6308926611998</v>
+        <v>6.747005500970001</v>
       </c>
       <c r="R20">
-        <v>159.6308926611998</v>
+        <v>40.48203300582001</v>
       </c>
       <c r="S20">
-        <v>0.001819488942668675</v>
+        <v>6.956541472494434E-05</v>
       </c>
       <c r="T20">
-        <v>0.001819488942668675</v>
+        <v>5.090493731937136E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H21">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I21">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J21">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N21">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P21">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q21">
-        <v>615.6119762484436</v>
+        <v>26.221845998174</v>
       </c>
       <c r="R21">
-        <v>615.6119762484436</v>
+        <v>235.996613983566</v>
       </c>
       <c r="S21">
-        <v>0.007016807117252358</v>
+        <v>0.0002703619541223651</v>
       </c>
       <c r="T21">
-        <v>0.007016807117252358</v>
+        <v>0.0002967586346439214</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H22">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I22">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J22">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N22">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O22">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P22">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q22">
-        <v>883.526036645738</v>
+        <v>36.089973762206</v>
       </c>
       <c r="R22">
-        <v>883.526036645738</v>
+        <v>324.809763859854</v>
       </c>
       <c r="S22">
-        <v>0.01007051847820392</v>
+        <v>0.0003721078916890279</v>
       </c>
       <c r="T22">
-        <v>0.01007051847820392</v>
+        <v>0.0004084384958539155</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H23">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I23">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J23">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N23">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O23">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P23">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q23">
-        <v>880.5475195627384</v>
+        <v>35.71483071715134</v>
       </c>
       <c r="R23">
-        <v>880.5475195627384</v>
+        <v>321.4334764543621</v>
       </c>
       <c r="S23">
-        <v>0.01003656904142685</v>
+        <v>0.0003682399562758058</v>
       </c>
       <c r="T23">
-        <v>0.01003656904142685</v>
+        <v>0.0004041929161241613</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H24">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I24">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J24">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N24">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O24">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P24">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q24">
-        <v>120.0527405191415</v>
+        <v>5.278089069416001</v>
       </c>
       <c r="R24">
-        <v>120.0527405191415</v>
+        <v>47.50280162474401</v>
       </c>
       <c r="S24">
-        <v>0.001368373190615771</v>
+        <v>5.442006161345685E-05</v>
       </c>
       <c r="T24">
-        <v>0.001368373190615771</v>
+        <v>5.973334241525068E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.2067450726403</v>
+        <v>0.450118</v>
       </c>
       <c r="H25">
-        <v>11.2067450726403</v>
+        <v>1.350354</v>
       </c>
       <c r="I25">
-        <v>0.03359086224333229</v>
+        <v>0.001254007906653605</v>
       </c>
       <c r="J25">
-        <v>0.03359086224333229</v>
+        <v>0.001307336105450162</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.6710371265428</v>
+        <v>25.708558</v>
       </c>
       <c r="N25">
-        <v>25.6710371265428</v>
+        <v>51.417116</v>
       </c>
       <c r="O25">
-        <v>0.09761897296386338</v>
+        <v>0.09514503664207198</v>
       </c>
       <c r="P25">
-        <v>0.09761897296386338</v>
+        <v>0.0667829632560165</v>
       </c>
       <c r="Q25">
-        <v>287.6887688274497</v>
+        <v>11.571884709844</v>
       </c>
       <c r="R25">
-        <v>287.6887688274497</v>
+        <v>69.431308259064</v>
       </c>
       <c r="S25">
-        <v>0.003279105473164714</v>
+        <v>0.0001193126282280053</v>
       </c>
       <c r="T25">
-        <v>0.003279105473164714</v>
+        <v>8.730777909354189E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H26">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I26">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J26">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.2441798779662</v>
+        <v>14.989415</v>
       </c>
       <c r="N26">
-        <v>14.2441798779662</v>
+        <v>29.97883</v>
       </c>
       <c r="O26">
-        <v>0.0541661875032648</v>
+        <v>0.05547446260572933</v>
       </c>
       <c r="P26">
-        <v>0.0541661875032648</v>
+        <v>0.03893791130463959</v>
       </c>
       <c r="Q26">
-        <v>298.1101334810595</v>
+        <v>169.336875228255</v>
       </c>
       <c r="R26">
-        <v>298.1101334810595</v>
+        <v>1016.02125136953</v>
       </c>
       <c r="S26">
-        <v>0.003397889233868258</v>
+        <v>0.001745958255375089</v>
       </c>
       <c r="T26">
-        <v>0.003397889233868258</v>
+        <v>0.001277616124384846</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H27">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I27">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J27">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>54.9322726856145</v>
+        <v>58.255493</v>
       </c>
       <c r="N27">
-        <v>54.9322726856145</v>
+        <v>174.766479</v>
       </c>
       <c r="O27">
-        <v>0.2088903543595454</v>
+        <v>0.2155982850569436</v>
       </c>
       <c r="P27">
-        <v>0.2088903543595454</v>
+        <v>0.2269949046819425</v>
       </c>
       <c r="Q27">
-        <v>1149.6532115589</v>
+        <v>658.117955203821</v>
       </c>
       <c r="R27">
-        <v>1149.6532115589</v>
+        <v>5923.061596834388</v>
       </c>
       <c r="S27">
-        <v>0.01310386273899088</v>
+        <v>0.006785565609084525</v>
       </c>
       <c r="T27">
-        <v>0.01310386273899088</v>
+        <v>0.007448071574920222</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H28">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I28">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J28">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>78.83877351709759</v>
+        <v>80.178917</v>
       </c>
       <c r="N28">
-        <v>78.83877351709759</v>
+        <v>240.536751</v>
       </c>
       <c r="O28">
-        <v>0.2997993443947063</v>
+        <v>0.2967348847759819</v>
       </c>
       <c r="P28">
-        <v>0.2997993443947063</v>
+        <v>0.3124204205415681</v>
       </c>
       <c r="Q28">
-        <v>1649.981781893976</v>
+        <v>905.7890027039489</v>
       </c>
       <c r="R28">
-        <v>1649.981781893976</v>
+        <v>8152.10102433554</v>
       </c>
       <c r="S28">
-        <v>0.01880665802034037</v>
+        <v>0.009339193160185643</v>
       </c>
       <c r="T28">
-        <v>0.01880665802034037</v>
+        <v>0.01025102152367997</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H29">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I29">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J29">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.5729945541879</v>
+        <v>79.34548433333335</v>
       </c>
       <c r="N29">
-        <v>78.5729945541879</v>
+        <v>238.036453</v>
       </c>
       <c r="O29">
-        <v>0.2987886696305061</v>
+        <v>0.2936504262229702</v>
       </c>
       <c r="P29">
-        <v>0.2987886696305061</v>
+        <v>0.3091729161606711</v>
       </c>
       <c r="Q29">
-        <v>1644.419411663589</v>
+        <v>896.3736330256471</v>
       </c>
       <c r="R29">
-        <v>1644.419411663589</v>
+        <v>8067.362697230823</v>
       </c>
       <c r="S29">
-        <v>0.01874325756595152</v>
+        <v>0.009242115412677422</v>
       </c>
       <c r="T29">
-        <v>0.01874325756595152</v>
+        <v>0.01014446562938499</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>20.928557209685</v>
+        <v>11.297097</v>
       </c>
       <c r="H30">
-        <v>20.928557209685</v>
+        <v>33.891291</v>
       </c>
       <c r="I30">
-        <v>0.06273081770178961</v>
+        <v>0.03147318916424743</v>
       </c>
       <c r="J30">
-        <v>0.06273081770178961</v>
+        <v>0.03281162449596041</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.7125431818944</v>
+        <v>11.726012</v>
       </c>
       <c r="N30">
-        <v>10.7125431818944</v>
+        <v>35.17803600000001</v>
       </c>
       <c r="O30">
-        <v>0.04073647114811378</v>
+        <v>0.04339690469630293</v>
       </c>
       <c r="P30">
-        <v>0.04073647114811378</v>
+        <v>0.04569088405516222</v>
       </c>
       <c r="Q30">
-        <v>224.1980728434979</v>
+        <v>132.469894987164</v>
       </c>
       <c r="R30">
-        <v>224.1980728434979</v>
+        <v>1192.229054884476</v>
       </c>
       <c r="S30">
-        <v>0.002555432145406538</v>
+        <v>0.001365838990649559</v>
       </c>
       <c r="T30">
-        <v>0.002555432145406538</v>
+        <v>0.001499192130506448</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>11.297097</v>
+      </c>
+      <c r="H31">
+        <v>33.891291</v>
+      </c>
+      <c r="I31">
+        <v>0.03147318916424743</v>
+      </c>
+      <c r="J31">
+        <v>0.03281162449596041</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>25.708558</v>
+      </c>
+      <c r="N31">
+        <v>51.417116</v>
+      </c>
+      <c r="O31">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="P31">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="Q31">
+        <v>290.432073456126</v>
+      </c>
+      <c r="R31">
+        <v>1742.592440736756</v>
+      </c>
+      <c r="S31">
+        <v>0.002994517736275184</v>
+      </c>
+      <c r="T31">
+        <v>0.002191257513083935</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>23.139818</v>
+      </c>
+      <c r="H32">
+        <v>46.279636</v>
+      </c>
+      <c r="I32">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J32">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>14.989415</v>
+      </c>
+      <c r="N32">
+        <v>29.97883</v>
+      </c>
+      <c r="O32">
+        <v>0.05547446260572933</v>
+      </c>
+      <c r="P32">
+        <v>0.03893791130463959</v>
+      </c>
+      <c r="Q32">
+        <v>346.85233502647</v>
+      </c>
+      <c r="R32">
+        <v>1387.40934010588</v>
+      </c>
+      <c r="S32">
+        <v>0.003576242309416046</v>
+      </c>
+      <c r="T32">
+        <v>0.001744625460985284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>23.139818</v>
+      </c>
+      <c r="H33">
+        <v>46.279636</v>
+      </c>
+      <c r="I33">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J33">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>58.255493</v>
+      </c>
+      <c r="N33">
+        <v>174.766479</v>
+      </c>
+      <c r="O33">
+        <v>0.2155982850569436</v>
+      </c>
+      <c r="P33">
+        <v>0.2269949046819425</v>
+      </c>
+      <c r="Q33">
+        <v>1348.021505520274</v>
+      </c>
+      <c r="R33">
+        <v>8088.129033121643</v>
+      </c>
+      <c r="S33">
+        <v>0.01389885854934901</v>
+      </c>
+      <c r="T33">
+        <v>0.01017057867135408</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>23.139818</v>
+      </c>
+      <c r="H34">
+        <v>46.279636</v>
+      </c>
+      <c r="I34">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J34">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>80.178917</v>
+      </c>
+      <c r="N34">
+        <v>240.536751</v>
+      </c>
+      <c r="O34">
+        <v>0.2967348847759819</v>
+      </c>
+      <c r="P34">
+        <v>0.3124204205415681</v>
+      </c>
+      <c r="Q34">
+        <v>1855.325546817106</v>
+      </c>
+      <c r="R34">
+        <v>11131.95328090264</v>
+      </c>
+      <c r="S34">
+        <v>0.01912944803373297</v>
+      </c>
+      <c r="T34">
+        <v>0.01399809599298163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>23.139818</v>
+      </c>
+      <c r="H35">
+        <v>46.279636</v>
+      </c>
+      <c r="I35">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J35">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>79.34548433333335</v>
+      </c>
+      <c r="N35">
+        <v>238.036453</v>
+      </c>
+      <c r="O35">
+        <v>0.2936504262229702</v>
+      </c>
+      <c r="P35">
+        <v>0.3091729161606711</v>
+      </c>
+      <c r="Q35">
+        <v>1836.040066595185</v>
+      </c>
+      <c r="R35">
+        <v>11016.24039957111</v>
+      </c>
+      <c r="S35">
+        <v>0.01893060390508734</v>
+      </c>
+      <c r="T35">
+        <v>0.01385259052959795</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>20.928557209685</v>
-      </c>
-      <c r="H31">
-        <v>20.928557209685</v>
-      </c>
-      <c r="I31">
-        <v>0.06273081770178961</v>
-      </c>
-      <c r="J31">
-        <v>0.06273081770178961</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>25.6710371265428</v>
-      </c>
-      <c r="N31">
-        <v>25.6710371265428</v>
-      </c>
-      <c r="O31">
-        <v>0.09761897296386338</v>
-      </c>
-      <c r="P31">
-        <v>0.09761897296386338</v>
-      </c>
-      <c r="Q31">
-        <v>537.2577691347987</v>
-      </c>
-      <c r="R31">
-        <v>537.2577691347987</v>
-      </c>
-      <c r="S31">
-        <v>0.006123717997232042</v>
-      </c>
-      <c r="T31">
-        <v>0.006123717997232042</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>23.139818</v>
+      </c>
+      <c r="H36">
+        <v>46.279636</v>
+      </c>
+      <c r="I36">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J36">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11.726012</v>
+      </c>
+      <c r="N36">
+        <v>35.17803600000001</v>
+      </c>
+      <c r="O36">
+        <v>0.04339690469630293</v>
+      </c>
+      <c r="P36">
+        <v>0.04569088405516222</v>
+      </c>
+      <c r="Q36">
+        <v>271.337783545816</v>
+      </c>
+      <c r="R36">
+        <v>1628.026701274896</v>
+      </c>
+      <c r="S36">
+        <v>0.002797644887083338</v>
+      </c>
+      <c r="T36">
+        <v>0.002047194546053229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>23.139818</v>
+      </c>
+      <c r="H37">
+        <v>46.279636</v>
+      </c>
+      <c r="I37">
+        <v>0.06446646152903331</v>
+      </c>
+      <c r="J37">
+        <v>0.04480531704270962</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>25.708558</v>
+      </c>
+      <c r="N37">
+        <v>51.417116</v>
+      </c>
+      <c r="O37">
+        <v>0.09514503664207198</v>
+      </c>
+      <c r="P37">
+        <v>0.0667829632560165</v>
+      </c>
+      <c r="Q37">
+        <v>594.8913531624439</v>
+      </c>
+      <c r="R37">
+        <v>2379.565412649776</v>
+      </c>
+      <c r="S37">
+        <v>0.006133663844364597</v>
+      </c>
+      <c r="T37">
+        <v>0.002992231841737447</v>
       </c>
     </row>
   </sheetData>
